--- a/Production/BOMs/OSpcb/3DProUsb-OSpcb-BOM-DigiKey.xlsx
+++ b/Production/BOMs/OSpcb/3DProUsb-OSpcb-BOM-DigiKey.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kreeblah/SidewinderToUSBV2/Production/BOMs/OSpcb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D144CC1-0BAA-6940-A2AC-7E05111B4F8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9904DD09-8EE4-2D45-A648-4DBDE7895AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1420" windowWidth="27240" windowHeight="15300" xr2:uid="{0C8D7EBD-3800-C24C-95BA-244E27EE7FD8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_3DProUsb_SeeedStudio_BOM" localSheetId="0">Sheet1!$A$1:$D$15</definedName>
+    <definedName name="_3DProUsb_SeeedStudio_BOM" localSheetId="0">Sheet1!$A$1:$D$16</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Designator</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>CONN RCPT USB2.0 MICRO B SMD R/A</t>
-  </si>
-  <si>
     <t>D-SUB R/A 15 WAY SOCKET</t>
   </si>
   <si>
@@ -180,17 +177,32 @@
     <t>C1,C2,C11</t>
   </si>
   <si>
-    <t>10118193-0001LF</t>
-  </si>
-  <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>USB4105-GF-A</t>
+  </si>
+  <si>
+    <t>CONN RCP USB2.0 TYP C 24P SMD RA</t>
+  </si>
+  <si>
+    <t>R8,R9</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ERA-2APB512X</t>
+  </si>
+  <si>
+    <t>RES SMD 5.1K OHM 0.1% 1/16W 0402</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -594,10 +606,10 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -606,7 +618,7 @@
     <col min="5" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +632,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -631,10 +643,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -645,10 +657,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -659,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -673,10 +685,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -687,10 +699,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -701,24 +713,24 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -729,10 +741,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -743,10 +755,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -757,10 +769,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -771,10 +783,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -785,10 +797,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -799,10 +811,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -813,13 +825,25 @@
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16" s="4"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>